--- a/Cores.xlsx
+++ b/Cores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristiano.dasilva\Documents\11 - DISTRIBUIÇÃO VACINAS\base_distribuição_e_aplicação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\base_distribuicao_e_aplicacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{719A944F-131F-4914-97F1-881BDC9DE6AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944238D6-6D5F-43AF-B26E-D3D57D8D4AE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64885127-82D6-476B-A47C-DB27ADFE4063}"/>
   </bookViews>
@@ -20,6 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -88,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +126,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Semibold"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -207,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +257,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1B99E3-2A7E-4EFB-A61A-01938014C4DC}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +599,7 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <f>100/8</f>
         <v>12.5</v>
@@ -605,10 +621,15 @@
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>MID(D3,2,10)</f>
+        <v>EB3B5A</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <f>(100/8)+B3</f>
+        <f t="shared" ref="B4:B10" si="0">(100/8)+B3</f>
         <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -617,10 +638,14 @@
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E10" si="1">MID(D4,2,10)</f>
+        <v>FA8231</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <f>(100/8)+B4</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -629,10 +654,15 @@
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>F7B731</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <f>(100/8)+B5</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -641,10 +671,14 @@
       <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>FED330</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <f>(100/8)+B6</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -653,10 +687,14 @@
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>99E472</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <f>(100/8)+B7</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -665,10 +703,14 @@
       <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>23C26F</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <f>(100/8)+B8</f>
+        <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -677,10 +719,14 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>07AB00</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <f>(100/8)+B9</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -688,6 +734,10 @@
       </c>
       <c r="D10" s="11" t="s">
         <v>13</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>026645</v>
       </c>
     </row>
   </sheetData>
